--- a/fruit.xlsx
+++ b/fruit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Fruit</t>
   </si>
@@ -28,31 +28,90 @@
     <t>Apple</t>
   </si>
   <si>
+    <t>Apple and cinnamon custard cake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (about 400g) Granny Smith apples, peeled, cut into 1cm pieces, plus 1 apple, extra
+1 tablespoon fresh lemon juice
+1 teaspoon cornflour
+155g (3 ⁄4 cup) raw caster sugar, plus 2 tsp, extra
+200g unsalted butter, at room temperature
+2 tsp vanilla extract
+3 eggs
+265g (1 3/4 cups) self-raising flour
+55g (1/2 cup) almond meal
+1 teaspoon ground cinnamon
+80ml (1/3 cup) milk
+1 tbs demerara sugar
+Demerara sugar, to serve (optional)
+Whipped cream, to serve
+</t>
+  </si>
+  <si>
     <t>Orange</t>
   </si>
   <si>
+    <t>Cauliflower, fennel and orange salad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 tablespoons apple cider vinegar
+2 teaspoons caster sugar
+Large pinch saffron threads
+1/4 cup sultanas
+1 1/2 tablespoons lemon juice
+1/3 cup extra virgin olive oil
+25g butter
+1/2 cauliflower, cut into thin wedges, small leaves reserved
+1 fennel bulb, very thinly sliced, fronds reserved
+2 oranges, peeled, thinly sliced into rounds
+2 tablespoons natural flaked almonds, toasted
+1/4 cup small fresh mint leaves
+</t>
+  </si>
+  <si>
     <t>Banana</t>
   </si>
   <si>
-    <t>Pear</t>
-  </si>
-  <si>
-    <t>Plum</t>
-  </si>
-  <si>
-    <t>Mandarin</t>
-  </si>
-  <si>
-    <t>Lime</t>
-  </si>
-  <si>
-    <t>Dragon Fruit</t>
-  </si>
-  <si>
-    <t>Passion Fruit</t>
+    <t>Moist banana cake recipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup butter
+1/2 cup caster sugar
+1 teaspoon vanilla extract
+2 eggs
+3 small-medium bananas
+1 1/2 cups self-raising flour
+1 teaspoon bicarbonate of soda
+50ml milk
+</t>
   </si>
   <si>
     <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Pork and pineapple nacho bake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 tablespoon Mexican chilli powder
+2 teaspoons garlic powder
+1 teaspoon dried oregano
+1.6kg pork neck
+1 brown onion, halved, sliced
+390g bottle nachos salsa
+400g can diced tomatoes
+1 chicken stock cube, crumbled
+200g bag plain corn chips
+150g fresh pineapple, skin removed, chopped
+200g can black beans, drained, rinsed
+200g mixed cherry tomatoes, sliced
+180 g (1 1/2cups) grated 4 cheese melt cheese
+1-2 spring onions, chopped
+Sliced jalapenos, to serve
+1 avocado, mashed
+Chopped coriander, to serve
+Sour cream, to serve
+Lime wedges, to serve
+</t>
   </si>
 </sst>
 </file>
@@ -60,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,7 +148,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,43 +163,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -150,6 +172,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -157,13 +186,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -171,11 +239,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,9 +254,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,14 +264,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,13 +286,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,25 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,139 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,21 +485,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,6 +505,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -471,26 +530,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,8 +552,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,154 +582,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -991,13 +1053,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="30.9380530973451" customWidth="1"/>
+    <col min="3" max="3" width="49.4513274336283" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1010,55 +1076,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" ht="228" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" ht="185.25" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" ht="128.25" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" ht="285" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
